--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_21_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_21_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3452373.109982803</v>
+        <v>3454133.640285589</v>
       </c>
     </row>
     <row r="7">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7901444.962051898</v>
+        <v>7901444.962051899</v>
       </c>
     </row>
     <row r="11">
@@ -664,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>37.11181591693558</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -673,7 +673,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.09783323005805</v>
+        <v>50.20964914699363</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -718,16 +718,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
         <v>187.5255871663198</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -737,19 +737,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>138.2613113589521</v>
       </c>
       <c r="C3" t="n">
-        <v>92.02036655907179</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -788,7 +788,7 @@
         <v>26.91122581714239</v>
       </c>
       <c r="S3" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -800,13 +800,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>187.5255871663198</v>
       </c>
     </row>
     <row r="4">
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -831,7 +831,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>131.0226870711198</v>
+        <v>104.103752631558</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>23.43375830553086</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,10 +861,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>3.343082173845815</v>
       </c>
       <c r="R4" t="n">
-        <v>132.8223696106904</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -898,19 +898,19 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>349.2299344537548</v>
+        <v>349.229934453757</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>349.229934453757</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>96.60748103122258</v>
       </c>
       <c r="G5" t="n">
-        <v>12.538236240781</v>
+        <v>349.229934453757</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -949,19 +949,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>210.9942452356465</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>309.6651202679944</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>349.2299344537548</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -974,28 +974,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>97.95007950277717</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>38.47015094419599</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,25 +1022,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>8.321493021612113</v>
+        <v>8.321493021611872</v>
       </c>
       <c r="S6" t="n">
-        <v>144.2088206736375</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>194.2027622142185</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>181.9599571840413</v>
+        <v>146.1133145741397</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1068,7 +1068,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.7509192581389</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>5.686931024057287</v>
+        <v>5.68693102405706</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>76.5266268549132</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1116,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>85.50623570851398</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1135,25 +1135,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>286.5888679426061</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>193.0278927828546</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1305,10 +1305,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>64.50612826256102</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>230.8127283073653</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1381,13 +1381,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.876045741713</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1539,13 +1539,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>19.91555826189057</v>
+        <v>66.25628701154712</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1657,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1767,22 +1767,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>28.42659968729146</v>
       </c>
     </row>
     <row r="17">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634796</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1855,13 +1855,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417116</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1940,7 +1940,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2004,7 +2004,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2016,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>93.40444476188321</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2177,7 +2177,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2256,10 +2256,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428169</v>
+        <v>1.79977260571659</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2414,7 +2414,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H24" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2493,10 +2493,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>68.17501931583776</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2532,7 +2532,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>147.6895341487364</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444128</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2651,7 +2651,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H27" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2718,19 +2718,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>74.20064764874429</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428169</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2769,7 +2769,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2888,7 +2888,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H30" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2967,10 +2967,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428169</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>9.146142788179397</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444127</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,16 +3079,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3125,7 +3125,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H33" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3362,7 +3362,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H36" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3483,13 +3483,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>194.9085394018857</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>168.4805514670949</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695349</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3599,7 +3599,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3666,13 +3666,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>168.4805514670949</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634796</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3836,7 +3836,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3915,7 +3915,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428169</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.3752467101217</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3994,7 +3994,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444125</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U44" t="n">
         <v>250.9057009881286</v>
@@ -4073,7 +4073,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4137,7 +4137,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4312,13 +4312,13 @@
         <v>199.4030692042953</v>
       </c>
       <c r="D2" t="n">
-        <v>161.9163864599159</v>
+        <v>199.4030692042953</v>
       </c>
       <c r="E2" t="n">
-        <v>161.9163864599159</v>
+        <v>199.4030692042953</v>
       </c>
       <c r="F2" t="n">
-        <v>154.9708857107125</v>
+        <v>192.4575684550918</v>
       </c>
       <c r="G2" t="n">
         <v>141.7407511348962</v>
@@ -4333,10 +4333,10 @@
         <v>21.033711606785</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058944</v>
+        <v>80.81213159058973</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079184</v>
+        <v>191.8743094079185</v>
       </c>
       <c r="M2" t="n">
         <v>347.1218190644755</v>
@@ -4366,13 +4366,13 @@
         <v>388.82285422078</v>
       </c>
       <c r="V2" t="n">
-        <v>199.4030692042953</v>
+        <v>388.82285422078</v>
       </c>
       <c r="W2" t="n">
-        <v>199.4030692042953</v>
+        <v>388.82285422078</v>
       </c>
       <c r="X2" t="n">
-        <v>199.4030692042953</v>
+        <v>388.82285422078</v>
       </c>
       <c r="Y2" t="n">
         <v>199.4030692042953</v>
@@ -4385,16 +4385,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>403.4208798188556</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="C3" t="n">
-        <v>310.4710146076719</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D3" t="n">
-        <v>161.5366049464206</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E3" t="n">
-        <v>161.5366049464206</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F3" t="n">
         <v>15.00204697330559</v>
@@ -4418,13 +4418,13 @@
         <v>183.5548280772648</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140243</v>
+        <v>338.7690911140241</v>
       </c>
       <c r="N3" t="n">
-        <v>512.50005875466</v>
+        <v>512.5000587546598</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476346</v>
+        <v>649.2101578476345</v>
       </c>
       <c r="P3" t="n">
         <v>739.5989987017058</v>
@@ -4436,25 +4436,25 @@
         <v>722.9192922843273</v>
       </c>
       <c r="S3" t="n">
-        <v>571.6362168389236</v>
+        <v>722.9192922843273</v>
       </c>
       <c r="T3" t="n">
-        <v>571.6362168389236</v>
+        <v>722.9192922843273</v>
       </c>
       <c r="U3" t="n">
-        <v>571.6362168389236</v>
+        <v>722.9192922843273</v>
       </c>
       <c r="V3" t="n">
-        <v>571.6362168389236</v>
+        <v>722.9192922843273</v>
       </c>
       <c r="W3" t="n">
-        <v>571.6362168389236</v>
+        <v>533.4995072678427</v>
       </c>
       <c r="X3" t="n">
-        <v>571.6362168389236</v>
+        <v>344.079722251358</v>
       </c>
       <c r="Y3" t="n">
-        <v>571.6362168389236</v>
+        <v>154.6599372348734</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>615.9383389575112</v>
+        <v>565.0770331543872</v>
       </c>
       <c r="C4" t="n">
-        <v>615.9383389575112</v>
+        <v>565.0770331543872</v>
       </c>
       <c r="D4" t="n">
-        <v>465.8216995451754</v>
+        <v>414.9603937420515</v>
       </c>
       <c r="E4" t="n">
-        <v>317.9086059627823</v>
+        <v>267.0473001596583</v>
       </c>
       <c r="F4" t="n">
-        <v>171.0186584648719</v>
+        <v>120.157352661748</v>
       </c>
       <c r="G4" t="n">
-        <v>38.67250990818524</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H4" t="n">
-        <v>38.67250990818524</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I4" t="n">
-        <v>38.67250990818524</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J4" t="n">
         <v>15.00204697330559</v>
       </c>
       <c r="K4" t="n">
-        <v>88.29589434594199</v>
+        <v>106.7151088594233</v>
       </c>
       <c r="L4" t="n">
-        <v>100.3335179349381</v>
+        <v>279.6026869745584</v>
       </c>
       <c r="M4" t="n">
-        <v>285.9838492295947</v>
+        <v>465.253018269215</v>
       </c>
       <c r="N4" t="n">
-        <v>471.6341805242513</v>
+        <v>488.6815517114711</v>
       </c>
       <c r="O4" t="n">
-        <v>634.3723839608015</v>
+        <v>651.4197551480213</v>
       </c>
       <c r="P4" t="n">
         <v>750.1023486652792</v>
       </c>
       <c r="Q4" t="n">
-        <v>750.1023486652792</v>
+        <v>746.7254979846269</v>
       </c>
       <c r="R4" t="n">
-        <v>615.9383389575112</v>
+        <v>746.7254979846269</v>
       </c>
       <c r="S4" t="n">
-        <v>615.9383389575112</v>
+        <v>746.7254979846269</v>
       </c>
       <c r="T4" t="n">
-        <v>615.9383389575112</v>
+        <v>746.7254979846269</v>
       </c>
       <c r="U4" t="n">
-        <v>615.9383389575112</v>
+        <v>746.7254979846269</v>
       </c>
       <c r="V4" t="n">
-        <v>615.9383389575112</v>
+        <v>746.7254979846269</v>
       </c>
       <c r="W4" t="n">
-        <v>615.9383389575112</v>
+        <v>746.7254979846269</v>
       </c>
       <c r="X4" t="n">
-        <v>615.9383389575112</v>
+        <v>746.7254979846269</v>
       </c>
       <c r="Y4" t="n">
-        <v>615.9383389575112</v>
+        <v>746.7254979846269</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>400.3062901464492</v>
+        <v>1183.794237577001</v>
       </c>
       <c r="C5" t="n">
-        <v>47.54878059720184</v>
+        <v>831.0367280277517</v>
       </c>
       <c r="D5" t="n">
-        <v>47.54878059720184</v>
+        <v>478.2792184785022</v>
       </c>
       <c r="E5" t="n">
-        <v>47.54878059720184</v>
+        <v>478.2792184785022</v>
       </c>
       <c r="F5" t="n">
-        <v>40.60327984799837</v>
+        <v>380.6959043055501</v>
       </c>
       <c r="G5" t="n">
-        <v>27.93839475630039</v>
+        <v>27.93839475630056</v>
       </c>
       <c r="H5" t="n">
-        <v>27.93839475630039</v>
+        <v>27.93839475630056</v>
       </c>
       <c r="I5" t="n">
-        <v>27.93839475630039</v>
+        <v>27.93839475630056</v>
       </c>
       <c r="J5" t="n">
-        <v>80.99020340874563</v>
+        <v>80.99020340874665</v>
       </c>
       <c r="K5" t="n">
-        <v>211.2396305620526</v>
+        <v>211.2396305620546</v>
       </c>
       <c r="L5" t="n">
-        <v>409.7273242458656</v>
+        <v>409.7273242458682</v>
       </c>
       <c r="M5" t="n">
-        <v>662.2525653973818</v>
+        <v>662.2525653973858</v>
       </c>
       <c r="N5" t="n">
-        <v>923.4777373365735</v>
+        <v>923.4777373365789</v>
       </c>
       <c r="O5" t="n">
-        <v>1156.809998477531</v>
+        <v>1156.809998477538</v>
       </c>
       <c r="P5" t="n">
-        <v>1321.452684169732</v>
+        <v>1321.45268416974</v>
       </c>
       <c r="Q5" t="n">
-        <v>1396.919737815019</v>
+        <v>1396.919737815028</v>
       </c>
       <c r="R5" t="n">
-        <v>1396.919737815019</v>
+        <v>1396.919737815028</v>
       </c>
       <c r="S5" t="n">
-        <v>1396.919737815019</v>
+        <v>1396.919737815028</v>
       </c>
       <c r="T5" t="n">
-        <v>1396.919737815019</v>
+        <v>1183.794237577001</v>
       </c>
       <c r="U5" t="n">
-        <v>1396.919737815019</v>
+        <v>1183.794237577001</v>
       </c>
       <c r="V5" t="n">
-        <v>1065.856850471449</v>
+        <v>1183.794237577001</v>
       </c>
       <c r="W5" t="n">
-        <v>753.0637996956966</v>
+        <v>1183.794237577001</v>
       </c>
       <c r="X5" t="n">
-        <v>400.3062901464492</v>
+        <v>1183.794237577001</v>
       </c>
       <c r="Y5" t="n">
-        <v>400.3062901464492</v>
+        <v>1183.794237577001</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>165.7366073290005</v>
+        <v>657.0978466772493</v>
       </c>
       <c r="C6" t="n">
-        <v>165.7366073290005</v>
+        <v>482.6448173961223</v>
       </c>
       <c r="D6" t="n">
-        <v>165.7366073290005</v>
+        <v>333.7104077348711</v>
       </c>
       <c r="E6" t="n">
-        <v>165.7366073290005</v>
+        <v>174.4729527294156</v>
       </c>
       <c r="F6" t="n">
-        <v>165.7366073290005</v>
+        <v>27.93839475630056</v>
       </c>
       <c r="G6" t="n">
-        <v>165.7366073290005</v>
+        <v>27.93839475630056</v>
       </c>
       <c r="H6" t="n">
-        <v>66.79713308377109</v>
+        <v>27.93839475630056</v>
       </c>
       <c r="I6" t="n">
-        <v>27.93839475630039</v>
+        <v>27.93839475630056</v>
       </c>
       <c r="J6" t="n">
-        <v>40.71784159143058</v>
+        <v>165.5479665784359</v>
       </c>
       <c r="K6" t="n">
-        <v>140.7147764379367</v>
+        <v>265.5449014249426</v>
       </c>
       <c r="L6" t="n">
-        <v>321.4955368824488</v>
+        <v>446.3256618694555</v>
       </c>
       <c r="M6" t="n">
-        <v>551.8150256158602</v>
+        <v>676.6451506028679</v>
       </c>
       <c r="N6" t="n">
-        <v>802.6390307947644</v>
+        <v>927.4691557817731</v>
       </c>
       <c r="O6" t="n">
-        <v>1009.874197887848</v>
+        <v>1134.704322874857</v>
       </c>
       <c r="P6" t="n">
-        <v>1156.865623411831</v>
+        <v>1281.695748398842</v>
       </c>
       <c r="Q6" t="n">
-        <v>1396.919737815019</v>
+        <v>1396.919737815028</v>
       </c>
       <c r="R6" t="n">
-        <v>1388.51418930834</v>
+        <v>1388.514189308349</v>
       </c>
       <c r="S6" t="n">
-        <v>1242.848713880424</v>
+        <v>1388.514189308349</v>
       </c>
       <c r="T6" t="n">
-        <v>1046.684307603435</v>
+        <v>1388.514189308349</v>
       </c>
       <c r="U6" t="n">
-        <v>862.8863710538988</v>
+        <v>1240.924982667804</v>
       </c>
       <c r="V6" t="n">
-        <v>627.7342628221561</v>
+        <v>1240.924982667804</v>
       </c>
       <c r="W6" t="n">
-        <v>373.4969060939545</v>
+        <v>1240.924982667804</v>
       </c>
       <c r="X6" t="n">
-        <v>373.4969060939545</v>
+        <v>1033.073482462271</v>
       </c>
       <c r="Y6" t="n">
-        <v>165.7366073290005</v>
+        <v>825.3131836973173</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>815.9739049265396</v>
+        <v>647.5386329486215</v>
       </c>
       <c r="C7" t="n">
-        <v>647.0377219986327</v>
+        <v>478.6024500207146</v>
       </c>
       <c r="D7" t="n">
-        <v>496.921082586297</v>
+        <v>328.4858106083789</v>
       </c>
       <c r="E7" t="n">
-        <v>349.0079890039038</v>
+        <v>180.5727170259857</v>
       </c>
       <c r="F7" t="n">
-        <v>202.1180415059935</v>
+        <v>33.68276952807537</v>
       </c>
       <c r="G7" t="n">
-        <v>33.68276952807543</v>
+        <v>33.68276952807537</v>
       </c>
       <c r="H7" t="n">
-        <v>33.68276952807543</v>
+        <v>33.68276952807537</v>
       </c>
       <c r="I7" t="n">
-        <v>33.68276952807543</v>
+        <v>33.68276952807537</v>
       </c>
       <c r="J7" t="n">
-        <v>27.93839475630039</v>
+        <v>27.93839475630056</v>
       </c>
       <c r="K7" t="n">
-        <v>148.5233105874689</v>
+        <v>148.5233105874694</v>
       </c>
       <c r="L7" t="n">
-        <v>358.3569215208637</v>
+        <v>358.3569215208647</v>
       </c>
       <c r="M7" t="n">
-        <v>589.9861665014271</v>
+        <v>589.9861665014286</v>
       </c>
       <c r="N7" t="n">
-        <v>821.5424021750243</v>
+        <v>821.5424021750263</v>
       </c>
       <c r="O7" t="n">
-        <v>1019.405768767885</v>
+        <v>1019.405768767887</v>
       </c>
       <c r="P7" t="n">
-        <v>1165.191378612031</v>
+        <v>1165.191378612034</v>
       </c>
       <c r="Q7" t="n">
-        <v>1182.690698049271</v>
+        <v>1182.690698049274</v>
       </c>
       <c r="R7" t="n">
-        <v>1105.3910749635</v>
+        <v>1182.690698049274</v>
       </c>
       <c r="S7" t="n">
-        <v>1105.3910749635</v>
+        <v>1182.690698049274</v>
       </c>
       <c r="T7" t="n">
-        <v>1105.3910749635</v>
+        <v>1182.690698049274</v>
       </c>
       <c r="U7" t="n">
-        <v>1105.3910749635</v>
+        <v>1182.690698049274</v>
       </c>
       <c r="V7" t="n">
-        <v>1105.3910749635</v>
+        <v>1182.690698049274</v>
       </c>
       <c r="W7" t="n">
-        <v>815.9739049265396</v>
+        <v>1096.320762990169</v>
       </c>
       <c r="X7" t="n">
-        <v>815.9739049265396</v>
+        <v>868.3312120921516</v>
       </c>
       <c r="Y7" t="n">
-        <v>815.9739049265396</v>
+        <v>647.5386329486215</v>
       </c>
     </row>
     <row r="8">
@@ -4783,22 +4783,22 @@
         <v>728.3028554854568</v>
       </c>
       <c r="C8" t="n">
-        <v>359.3403385450451</v>
+        <v>728.3028554854568</v>
       </c>
       <c r="D8" t="n">
-        <v>69.85663355251364</v>
+        <v>728.3028554854568</v>
       </c>
       <c r="E8" t="n">
-        <v>69.85663355251364</v>
+        <v>728.3028554854568</v>
       </c>
       <c r="F8" t="n">
-        <v>62.91113280331017</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="G8" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H8" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
         <v>51.2467865680031</v>
@@ -4807,7 +4807,7 @@
         <v>187.5281822362822</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816085</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L8" t="n">
         <v>795.7553530872917</v>
@@ -4883,25 +4883,25 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>168.0008189145199</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K9" t="n">
-        <v>614.5430248380227</v>
+        <v>507.2413987429755</v>
       </c>
       <c r="L9" t="n">
-        <v>909.2465818694943</v>
+        <v>801.9449557744472</v>
       </c>
       <c r="M9" t="n">
-        <v>1272.508600828714</v>
+        <v>1165.206974733667</v>
       </c>
       <c r="N9" t="n">
-        <v>1659.79372942566</v>
+        <v>1552.492103330613</v>
       </c>
       <c r="O9" t="n">
-        <v>1991.864164601821</v>
+        <v>1884.562538506774</v>
       </c>
       <c r="P9" t="n">
-        <v>2239.046898434118</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>665.1026499885492</v>
+        <v>898.2468199959889</v>
       </c>
       <c r="C10" t="n">
-        <v>496.1664670606423</v>
+        <v>729.310637068082</v>
       </c>
       <c r="D10" t="n">
-        <v>346.0498276483066</v>
+        <v>579.1939976557462</v>
       </c>
       <c r="E10" t="n">
-        <v>198.1367340659135</v>
+        <v>431.2809040733531</v>
       </c>
       <c r="F10" t="n">
-        <v>51.2467865680031</v>
+        <v>284.3909565754427</v>
       </c>
       <c r="G10" t="n">
-        <v>51.2467865680031</v>
+        <v>116.4044918837213</v>
       </c>
       <c r="H10" t="n">
         <v>51.2467865680031</v>
@@ -4998,16 +4998,16 @@
         <v>1636.446120074497</v>
       </c>
       <c r="V10" t="n">
-        <v>1403.301950067057</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W10" t="n">
-        <v>1113.884780030097</v>
+        <v>1347.028950037536</v>
       </c>
       <c r="X10" t="n">
-        <v>885.8952291320793</v>
+        <v>1119.039399139519</v>
       </c>
       <c r="Y10" t="n">
-        <v>665.1026499885492</v>
+        <v>898.2468199959889</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551877</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
@@ -5041,19 +5041,19 @@
         <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075808</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5077,16 +5077,16 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="12">
@@ -5120,16 +5120,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N12" t="n">
         <v>2001.151557821488</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>580.8993044876688</v>
+        <v>916.3099000622261</v>
       </c>
       <c r="C13" t="n">
-        <v>411.9631215597619</v>
+        <v>747.3737171343192</v>
       </c>
       <c r="D13" t="n">
-        <v>261.8464821474262</v>
+        <v>597.2570777219835</v>
       </c>
       <c r="E13" t="n">
-        <v>113.9333885650331</v>
+        <v>449.3439841395904</v>
       </c>
       <c r="F13" t="n">
-        <v>113.9333885650331</v>
+        <v>302.45403664168</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797187</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>2090.842153176861</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1836.157664970974</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1546.740494934013</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614387</v>
+        <v>1318.750944035996</v>
       </c>
       <c r="Y13" t="n">
-        <v>762.5477693179085</v>
+        <v>1097.958364892466</v>
       </c>
     </row>
     <row r="14">
@@ -5278,10 +5278,10 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5354,28 +5354,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1344.266747951538</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5481,7 +5481,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>887.5809076559709</v>
       </c>
     </row>
     <row r="17">
@@ -5494,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5503,64 +5503,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,22 +5588,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>95.584050252739</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>280.8495004245714</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>776.17510664033</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266882</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
         <v>2001.151557821488</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908938</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908938</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908938</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,25 +5825,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>95.584050252739</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1373.553594266882</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5983,7 +5983,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192593</v>
@@ -5992,7 +5992,7 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332388</v>
@@ -6062,10 +6062,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.584050252739</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
         <v>245.2306927803937</v>
@@ -6077,10 +6077,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793924</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348531</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,37 +6123,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>653.7474797708871</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C25" t="n">
-        <v>484.8112968429803</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429803</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>244.7670222746419</v>
       </c>
       <c r="H25" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1828.279732885522</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1573.595244679635</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1284.178074642674</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>1056.188523744657</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y25" t="n">
-        <v>835.3959446011269</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="26">
@@ -6214,25 +6214,25 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362676</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014779</v>
@@ -6253,10 +6253,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466572</v>
@@ -6299,10 +6299,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.584050252739</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
         <v>245.2306927803937</v>
@@ -6314,10 +6314,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793924</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,37 +6360,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>802.9288273958734</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>633.9926444679666</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>483.8760050556308</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>335.9629114732377</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6417,19 +6417,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>984.5772922261132</v>
       </c>
     </row>
     <row r="29">
@@ -6457,28 +6457,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6490,7 +6490,7 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
         <v>4405.252601474784</v>
@@ -6536,10 +6536,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.584050252739</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
         <v>245.2306927803937</v>
@@ -6551,10 +6551,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793924</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348531</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,37 +6597,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>244.7670222746419</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797186</v>
+        <v>103.0551911168399</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362675</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6773,10 +6773,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.584050252739</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
         <v>245.2306927803937</v>
@@ -6788,10 +6788,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793924</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348531</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,37 +6834,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6913,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111722</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6964,25 +6964,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7010,10 +7010,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.584050252739</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
         <v>245.2306927803937</v>
@@ -7025,10 +7025,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793924</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348531</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7074,34 +7074,34 @@
         <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
@@ -7131,10 +7131,10 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
         <v>974.1018203925706</v>
@@ -7165,58 +7165,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
         <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7247,25 +7247,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273898</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803936</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516141</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793924</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348531</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,37 +7308,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908938</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908938</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797183</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="41">
@@ -7405,7 +7405,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
         <v>95.34095638192593</v>
@@ -7414,16 +7414,16 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7432,31 +7432,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7484,10 +7484,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.584050252739</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
         <v>245.2306927803937</v>
@@ -7499,10 +7499,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793924</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348531</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,37 +7545,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362674</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
         <v>95.34095638192593</v>
@@ -7651,7 +7651,7 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332386</v>
@@ -7663,37 +7663,37 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7721,10 +7721,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.584050252739</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
         <v>245.2306927803937</v>
@@ -7736,10 +7736,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793924</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348531</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,37 +7782,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7836,22 +7836,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8139,22 +8139,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>88.13849915931785</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M4" t="n">
         <v>171.4142040457083</v>
       </c>
       <c r="N4" t="n">
-        <v>163.8604018711116</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>163.0416663658825</v>
       </c>
       <c r="P4" t="n">
-        <v>135.0065633140411</v>
+        <v>117.7869964582635</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>41.92993463898958</v>
+        <v>41.92993463898912</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8315,7 +8315,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>193.6499349213297</v>
+        <v>67.55889958092351</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>54.95314511566525</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>211.0329012241559</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8549,10 +8549,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>20.93778120154991</v>
@@ -23427,13 +23427,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>145.6085800303783</v>
+        <v>99.26785128072173</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23655,22 +23655,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>190.1580536648033</v>
       </c>
     </row>
     <row r="17">
@@ -23892,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23904,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>72.11969353038563</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.2291039219422</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24381,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>72.11969353038613</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24420,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>71.22040037418695</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>57.2291039219422</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24657,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856555</v>
+        <v>72.11969353038614</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25089,13 +25089,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>57.22910392194222</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25371,13 +25371,13 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>57.22910392194225</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25554,13 +25554,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>57.22910392194225</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25803,37 +25803,37 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>81.26583631856553</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" t="n">
         <v>57.2291039219422</v>
-      </c>
-      <c r="I43" t="n">
-        <v>81.26583631856555</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>0</v>
-      </c>
-      <c r="R43" t="n">
-        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26076,7 +26076,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>697469.8944247322</v>
+        <v>697469.8944247323</v>
       </c>
     </row>
     <row r="4">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>678704.7680095137</v>
+        <v>678704.7680095138</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>678704.7680095136</v>
+        <v>678704.7680095137</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>678704.7680095136</v>
+        <v>678704.7680095137</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>678704.7680095136</v>
+        <v>678704.7680095137</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>678704.7680095136</v>
+        <v>678704.7680095138</v>
       </c>
     </row>
     <row r="15">
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>759463.6371244625</v>
+        <v>759463.6371244623</v>
       </c>
       <c r="C2" t="n">
-        <v>759463.6371244619</v>
+        <v>759463.6371244616</v>
       </c>
       <c r="D2" t="n">
-        <v>759463.6371244624</v>
+        <v>759463.6371244623</v>
       </c>
       <c r="E2" t="n">
         <v>746610.6047132553</v>
@@ -26328,34 +26328,34 @@
         <v>746610.6047132553</v>
       </c>
       <c r="G2" t="n">
+        <v>746610.6047132555</v>
+      </c>
+      <c r="H2" t="n">
         <v>746610.6047132553</v>
       </c>
-      <c r="H2" t="n">
-        <v>746610.604713255</v>
-      </c>
       <c r="I2" t="n">
+        <v>746610.6047132553</v>
+      </c>
+      <c r="J2" t="n">
+        <v>746610.6047132553</v>
+      </c>
+      <c r="K2" t="n">
         <v>746610.6047132552</v>
-      </c>
-      <c r="J2" t="n">
-        <v>746610.604713255</v>
-      </c>
-      <c r="K2" t="n">
-        <v>746610.6047132548</v>
       </c>
       <c r="L2" t="n">
         <v>746610.6047132552</v>
       </c>
       <c r="M2" t="n">
-        <v>746610.6047132551</v>
+        <v>746610.6047132552</v>
       </c>
       <c r="N2" t="n">
+        <v>746610.6047132554</v>
+      </c>
+      <c r="O2" t="n">
         <v>746610.6047132553</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>746610.6047132552</v>
-      </c>
-      <c r="P2" t="n">
-        <v>746610.604713255</v>
       </c>
     </row>
     <row r="3">
@@ -26368,19 +26368,19 @@
         <v>591356.9025208453</v>
       </c>
       <c r="C3" t="n">
-        <v>178997.506142711</v>
+        <v>178997.5061427133</v>
       </c>
       <c r="D3" t="n">
-        <v>301519.8707731215</v>
+        <v>301519.8707731193</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.441624546</v>
+        <v>507485.4416245458</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,19 +26389,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854459</v>
+        <v>49064.94472854458</v>
       </c>
       <c r="K3" t="n">
-        <v>41617.52445267254</v>
+        <v>41617.52445267313</v>
       </c>
       <c r="L3" t="n">
-        <v>73739.30240019574</v>
+        <v>73739.3024001951</v>
       </c>
       <c r="M3" t="n">
         <v>132607.2937289267</v>
       </c>
       <c r="N3" t="n">
-        <v>5.200846139448641e-11</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26420,46 +26420,46 @@
         <v>277470.8484307132</v>
       </c>
       <c r="C4" t="n">
-        <v>229588.138980697</v>
+        <v>229588.1389806964</v>
       </c>
       <c r="D4" t="n">
-        <v>145155.2306979383</v>
+        <v>145155.2306979382</v>
       </c>
       <c r="E4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184266</v>
       </c>
       <c r="F4" t="n">
         <v>13606.80811184274</v>
       </c>
       <c r="G4" t="n">
-        <v>13606.80811184279</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="H4" t="n">
-        <v>13606.80811184281</v>
+        <v>13606.80811184269</v>
       </c>
       <c r="I4" t="n">
-        <v>13606.80811184279</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="J4" t="n">
-        <v>13606.80811184279</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="K4" t="n">
         <v>13606.80811184274</v>
       </c>
       <c r="L4" t="n">
-        <v>13606.80811184283</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="M4" t="n">
-        <v>13606.80811184281</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="N4" t="n">
-        <v>13606.80811184283</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="O4" t="n">
-        <v>13606.80811184279</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="P4" t="n">
-        <v>13606.80811184283</v>
+        <v>13606.80811184274</v>
       </c>
     </row>
     <row r="5">
@@ -26472,7 +26472,7 @@
         <v>56985.80041161356</v>
       </c>
       <c r="C5" t="n">
-        <v>69851.97930029171</v>
+        <v>69851.97930029187</v>
       </c>
       <c r="D5" t="n">
         <v>92937.7724398447</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-166349.9142387095</v>
+        <v>-166349.9142387097</v>
       </c>
       <c r="C6" t="n">
-        <v>281026.0127007623</v>
+        <v>281026.0127007599</v>
       </c>
       <c r="D6" t="n">
-        <v>219850.763213558</v>
+        <v>219850.7632135601</v>
       </c>
       <c r="E6" t="n">
-        <v>124048.4458986026</v>
+        <v>124361.087227524</v>
       </c>
       <c r="F6" t="n">
-        <v>631533.8875231486</v>
+        <v>631846.5288520699</v>
       </c>
       <c r="G6" t="n">
-        <v>631533.8875231486</v>
+        <v>631846.5288520698</v>
       </c>
       <c r="H6" t="n">
-        <v>631533.8875231481</v>
+        <v>631846.5288520698</v>
       </c>
       <c r="I6" t="n">
-        <v>631533.8875231483</v>
+        <v>631846.52885207</v>
       </c>
       <c r="J6" t="n">
-        <v>582468.9427946035</v>
+        <v>582781.5841235253</v>
       </c>
       <c r="K6" t="n">
-        <v>589916.3630704755</v>
+        <v>590229.0043993966</v>
       </c>
       <c r="L6" t="n">
-        <v>557794.5851229526</v>
+        <v>558107.2264518746</v>
       </c>
       <c r="M6" t="n">
-        <v>498926.5937942215</v>
+        <v>499239.2351231429</v>
       </c>
       <c r="N6" t="n">
-        <v>631533.8875231484</v>
+        <v>631846.52885207</v>
       </c>
       <c r="O6" t="n">
-        <v>631533.8875231483</v>
+        <v>631846.5288520699</v>
       </c>
       <c r="P6" t="n">
-        <v>631533.8875231481</v>
+        <v>631846.5288520698</v>
       </c>
     </row>
   </sheetData>
@@ -26700,34 +26700,34 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.519713256482332e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>3.519713256482332e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>3.519713256482332e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.519713256482332e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>7.059742318196886e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>3.36886840263309e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>6.888581659115422e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26740,7 +26740,7 @@
         <v>548.4699409129045</v>
       </c>
       <c r="C3" t="n">
-        <v>687.6696919955697</v>
+        <v>687.6696919955715</v>
       </c>
       <c r="D3" t="n">
         <v>934.0648921175391</v>
@@ -26792,7 +26792,7 @@
         <v>187.5255871663198</v>
       </c>
       <c r="C4" t="n">
-        <v>349.2299344537548</v>
+        <v>349.229934453757</v>
       </c>
       <c r="D4" t="n">
         <v>640.5848321000387</v>
@@ -26804,10 +26804,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26922,7 +26922,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.519713256482332e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26937,13 +26937,13 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>1.057945557467922e-13</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26962,10 +26962,10 @@
         <v>548.4699409129045</v>
       </c>
       <c r="C3" t="n">
-        <v>139.1997510826652</v>
+        <v>139.199751082667</v>
       </c>
       <c r="D3" t="n">
-        <v>246.3952001219694</v>
+        <v>246.3952001219676</v>
       </c>
       <c r="E3" t="n">
         <v>433.9106082241346</v>
@@ -26974,7 +26974,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27014,10 +27014,10 @@
         <v>187.5255871663198</v>
       </c>
       <c r="C4" t="n">
-        <v>161.704347287435</v>
+        <v>161.7043472874372</v>
       </c>
       <c r="D4" t="n">
-        <v>291.3548976462839</v>
+        <v>291.3548976462818</v>
       </c>
       <c r="E4" t="n">
         <v>532.1234559996096</v>
@@ -27038,10 +27038,10 @@
         <v>187.5255871663198</v>
       </c>
       <c r="K4" t="n">
-        <v>161.704347287435</v>
+        <v>161.7043472874371</v>
       </c>
       <c r="L4" t="n">
-        <v>291.3548976462839</v>
+        <v>291.3548976462818</v>
       </c>
       <c r="M4" t="n">
         <v>532.1234559996096</v>
@@ -27159,7 +27159,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3.519713256482332e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27260,10 +27260,10 @@
         <v>187.5255871663198</v>
       </c>
       <c r="K4" t="n">
-        <v>161.704347287435</v>
+        <v>161.7043472874372</v>
       </c>
       <c r="L4" t="n">
-        <v>291.3548976462839</v>
+        <v>291.3548976462818</v>
       </c>
       <c r="M4" t="n">
         <v>532.1234559996096</v>
@@ -27384,7 +27384,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>317.5712257037474</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27393,7 +27393,7 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>362.8881840830644</v>
       </c>
       <c r="H2" t="n">
         <v>316.8938261062223</v>
@@ -27438,7 +27438,7 @@
         <v>251.1692605650303</v>
       </c>
       <c r="V2" t="n">
-        <v>140.2266713038151</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>198.7123514897338</v>
       </c>
     </row>
     <row r="3">
@@ -27457,19 +27457,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>28.27187229091527</v>
       </c>
       <c r="C3" t="n">
-        <v>80.68813242924395</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>136.1637893657753</v>
@@ -27508,7 +27508,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
         <v>195.4095977920013</v>
@@ -27520,13 +27520,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>64.1693959945998</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>18.24739803715767</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>18.15710861098455</v>
       </c>
     </row>
     <row r="4">
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27551,7 +27551,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>35.97924813159435</v>
+        <v>62.89818257115621</v>
       </c>
       <c r="H4" t="n">
         <v>153.4336708318196</v>
@@ -27560,7 +27560,7 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>23.43375830553086</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.343082173845815</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S4" t="n">
         <v>206.7802557954962</v>
@@ -27618,25 +27618,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>16.04295731725273</v>
+        <v>16.04295731725057</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>5.453107166925975</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>310.2685647104889</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>63.30830178702401</v>
       </c>
       <c r="H5" t="n">
-        <v>311.1628534397888</v>
+        <v>311.1628534397887</v>
       </c>
       <c r="I5" t="n">
-        <v>103.8974541908714</v>
+        <v>103.8974541908711</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,22 +27666,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>146.0239967969025</v>
+        <v>146.0239967969023</v>
       </c>
       <c r="T5" t="n">
-        <v>210.9942452356465</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.1244928058882</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>39.57584844941863</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>20.50116622471421</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27694,28 +27694,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>135.8643785804277</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>97.95007950277713</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>38.47015094419586</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27745,22 +27745,22 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>144.2088206736374</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>194.2027622142185</v>
       </c>
       <c r="U6" t="n">
-        <v>43.88411314806626</v>
+        <v>79.73075575796781</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27788,13 +27788,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.7509192581389</v>
       </c>
       <c r="H7" t="n">
         <v>151.2019108882319</v>
       </c>
       <c r="I7" t="n">
-        <v>118.1584857285477</v>
+        <v>118.1584857285476</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>45.00915310241881</v>
+        <v>121.5357799573319</v>
       </c>
       <c r="S7" t="n">
         <v>202.4057324704885</v>
@@ -27836,13 +27836,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>201.016762628077</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27855,25 +27855,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>68.09417367807686</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>213.8481529588568</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -28025,10 +28025,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>82.74538089256785</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28070,7 +28070,7 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>21.32491501646271</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28101,13 +28101,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>-1.369421207612526e-12</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>-6.73773680526618e-14</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>-6.73773680526618e-14</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28149,7 +28149,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>-6.73773680526618e-14</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -28563,7 +28563,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>9.848122317634986e-13</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28815,7 +28815,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -28851,10 +28851,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>-6.73773680526618e-14</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -29043,7 +29043,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>-6.73773680526618e-14</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -29088,7 +29088,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>9.237055564881302e-13</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -29292,7 +29292,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>9.848122317634986e-13</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29766,7 +29766,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>1.834113959049141e-12</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29805,10 +29805,10 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>7.059742318196886e-14</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>7.059742318196886e-14</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -30000,7 +30000,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30273,7 +30273,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>1.818989403545856e-12</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -30459,7 +30459,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>9.426059932593489e-13</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -30714,7 +30714,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>1.927418225022848e-12</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.764501274354047</v>
+        <v>2.764501274354054</v>
       </c>
       <c r="H5" t="n">
-        <v>28.31194867597839</v>
+        <v>28.31194867597846</v>
       </c>
       <c r="I5" t="n">
-        <v>106.5784353795345</v>
+        <v>106.5784353795348</v>
       </c>
       <c r="J5" t="n">
-        <v>234.633590034207</v>
+        <v>234.6335900342076</v>
       </c>
       <c r="K5" t="n">
-        <v>351.6549289776138</v>
+        <v>351.6549289776148</v>
       </c>
       <c r="L5" t="n">
-        <v>436.2590348526266</v>
+        <v>436.2590348526278</v>
       </c>
       <c r="M5" t="n">
-        <v>485.4222343904204</v>
+        <v>485.4222343904217</v>
       </c>
       <c r="N5" t="n">
-        <v>493.2768736361789</v>
+        <v>493.2768736361801</v>
       </c>
       <c r="O5" t="n">
-        <v>465.7873640893208</v>
+        <v>465.787364089322</v>
       </c>
       <c r="P5" t="n">
-        <v>397.5387388787052</v>
+        <v>397.5387388787062</v>
       </c>
       <c r="Q5" t="n">
-        <v>298.5350369909008</v>
+        <v>298.5350369909016</v>
       </c>
       <c r="R5" t="n">
-        <v>173.6556031751425</v>
+        <v>173.655603175143</v>
       </c>
       <c r="S5" t="n">
-        <v>62.9960727893429</v>
+        <v>62.99607278934307</v>
       </c>
       <c r="T5" t="n">
-        <v>12.10160432848485</v>
+        <v>12.10160432848488</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2211601019483237</v>
+        <v>0.2211601019483243</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.479138582782924</v>
+        <v>1.479138582782928</v>
       </c>
       <c r="H6" t="n">
-        <v>14.28536473371929</v>
+        <v>14.28536473371933</v>
       </c>
       <c r="I6" t="n">
-        <v>50.92648190721908</v>
+        <v>50.92648190721922</v>
       </c>
       <c r="J6" t="n">
-        <v>139.7461588233639</v>
+        <v>139.7461588233642</v>
       </c>
       <c r="K6" t="n">
-        <v>238.8484438698197</v>
+        <v>238.8484438698204</v>
       </c>
       <c r="L6" t="n">
-        <v>321.1612085117046</v>
+        <v>321.1612085117054</v>
       </c>
       <c r="M6" t="n">
-        <v>374.7799821375854</v>
+        <v>374.7799821375864</v>
       </c>
       <c r="N6" t="n">
-        <v>384.6992930721254</v>
+        <v>384.6992930721264</v>
       </c>
       <c r="O6" t="n">
-        <v>351.9246960536195</v>
+        <v>351.9246960536204</v>
       </c>
       <c r="P6" t="n">
-        <v>282.4505948122936</v>
+        <v>282.4505948122943</v>
       </c>
       <c r="Q6" t="n">
-        <v>188.8107426022553</v>
+        <v>188.8107426022558</v>
       </c>
       <c r="R6" t="n">
-        <v>91.83634113103102</v>
+        <v>91.83634113103126</v>
       </c>
       <c r="S6" t="n">
-        <v>27.47435043020034</v>
+        <v>27.47435043020041</v>
       </c>
       <c r="T6" t="n">
-        <v>5.961966480603097</v>
+        <v>5.961966480603113</v>
       </c>
       <c r="U6" t="n">
-        <v>0.09731174886729764</v>
+        <v>0.09731174886729789</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.24006010031988</v>
+        <v>1.240060100319883</v>
       </c>
       <c r="H7" t="n">
-        <v>11.02526161920767</v>
+        <v>11.02526161920769</v>
       </c>
       <c r="I7" t="n">
-        <v>37.29198919871057</v>
+        <v>37.29198919871067</v>
       </c>
       <c r="J7" t="n">
-        <v>87.67224909261549</v>
+        <v>87.67224909261571</v>
       </c>
       <c r="K7" t="n">
-        <v>144.0724371098914</v>
+        <v>144.0724371098918</v>
       </c>
       <c r="L7" t="n">
-        <v>184.3631170966483</v>
+        <v>184.3631170966488</v>
       </c>
       <c r="M7" t="n">
-        <v>194.3850573619607</v>
+        <v>194.3850573619613</v>
       </c>
       <c r="N7" t="n">
-        <v>189.7630151698595</v>
+        <v>189.76301516986</v>
       </c>
       <c r="O7" t="n">
-        <v>175.2768585433954</v>
+        <v>175.2768585433959</v>
       </c>
       <c r="P7" t="n">
-        <v>149.9796324968698</v>
+        <v>149.9796324968702</v>
       </c>
       <c r="Q7" t="n">
-        <v>103.838123491331</v>
+        <v>103.8381234913313</v>
       </c>
       <c r="R7" t="n">
-        <v>55.75761141983748</v>
+        <v>55.75761141983763</v>
       </c>
       <c r="S7" t="n">
-        <v>21.61086556648371</v>
+        <v>21.61086556648377</v>
       </c>
       <c r="T7" t="n">
-        <v>5.298438610457666</v>
+        <v>5.29843861045768</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06763964183562987</v>
+        <v>0.06763964183563005</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31840,7 +31840,7 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
@@ -31849,10 +31849,10 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>597.1709559744729</v>
       </c>
       <c r="N12" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437243</v>
@@ -32074,7 +32074,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32086,19 +32086,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>414.6448185524877</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,31 +32305,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>173.8200325543365</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862119</v>
+        <v>446.012731199064</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,46 +32387,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,31 +32542,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>444.2274915982898</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,46 +32624,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,37 +32700,37 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
         <v>345.4516222043725</v>
@@ -32739,10 +32739,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32788,22 +32788,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558023</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32815,10 +32815,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
         <v>0.1935814387275954</v>
@@ -32864,28 +32864,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P25" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
         <v>206.5643005515927</v>
@@ -32894,7 +32894,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
@@ -32937,37 +32937,37 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
         <v>345.4516222043725</v>
@@ -32976,10 +32976,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33025,22 +33025,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>463.9598929192562</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33052,10 +33052,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
         <v>0.1935814387275954</v>
@@ -33101,28 +33101,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P28" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
         <v>206.5643005515927</v>
@@ -33131,7 +33131,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
@@ -33174,37 +33174,37 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
         <v>345.4516222043725</v>
@@ -33213,10 +33213,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33262,22 +33262,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558023</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33289,10 +33289,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
         <v>0.1935814387275954</v>
@@ -33338,28 +33338,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P31" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
         <v>206.5643005515927</v>
@@ -33368,7 +33368,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
@@ -33411,37 +33411,37 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
         <v>345.4516222043725</v>
@@ -33450,10 +33450,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33499,22 +33499,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558023</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33526,10 +33526,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
         <v>0.1935814387275954</v>
@@ -33575,28 +33575,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P34" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
         <v>206.5643005515927</v>
@@ -33605,7 +33605,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
@@ -33648,37 +33648,37 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
         <v>345.4516222043725</v>
@@ -33687,10 +33687,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33736,22 +33736,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558023</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33763,10 +33763,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
         <v>0.1935814387275954</v>
@@ -33812,28 +33812,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P37" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
         <v>206.5643005515927</v>
@@ -33842,7 +33842,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
@@ -33885,37 +33885,37 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043725</v>
@@ -33924,10 +33924,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33973,22 +33973,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558023</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34000,10 +34000,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
         <v>0.1935814387275954</v>
@@ -34049,28 +34049,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
         <v>206.5643005515927</v>
@@ -34079,7 +34079,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
@@ -34122,37 +34122,37 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34161,10 +34161,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34210,22 +34210,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558023</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34237,10 +34237,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
         <v>0.1935814387275954</v>
@@ -34286,28 +34286,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
         <v>206.5643005515927</v>
@@ -34316,7 +34316,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
@@ -34359,37 +34359,37 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
         <v>345.4516222043725</v>
@@ -34398,10 +34398,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34447,22 +34447,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558023</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34474,10 +34474,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
         <v>0.1935814387275954</v>
@@ -34523,28 +34523,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
         <v>206.5643005515927</v>
@@ -34553,7 +34553,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
@@ -34859,22 +34859,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>74.0341892652893</v>
+        <v>92.63945645062398</v>
       </c>
       <c r="L4" t="n">
-        <v>12.15921574646075</v>
+        <v>174.6339172880152</v>
       </c>
       <c r="M4" t="n">
         <v>187.5255871663198</v>
       </c>
       <c r="N4" t="n">
-        <v>187.5255871663198</v>
+        <v>23.66518529520823</v>
       </c>
       <c r="O4" t="n">
         <v>164.382023673283</v>
       </c>
       <c r="P4" t="n">
-        <v>116.8989542469472</v>
+        <v>99.67938739116964</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>53.58768550752072</v>
+        <v>53.58768550752134</v>
       </c>
       <c r="K5" t="n">
-        <v>131.5650779326333</v>
+        <v>131.5650779326343</v>
       </c>
       <c r="L5" t="n">
-        <v>200.4926198826394</v>
+        <v>200.4926198826406</v>
       </c>
       <c r="M5" t="n">
-        <v>255.0760011631477</v>
+        <v>255.076001163149</v>
       </c>
       <c r="N5" t="n">
-        <v>263.863810039588</v>
+        <v>263.8638100395892</v>
       </c>
       <c r="O5" t="n">
-        <v>235.689152667634</v>
+        <v>235.6891526676353</v>
       </c>
       <c r="P5" t="n">
-        <v>166.3057431234357</v>
+        <v>166.3057431234367</v>
       </c>
       <c r="Q5" t="n">
-        <v>76.22934711645129</v>
+        <v>76.22934711645209</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>12.90853215669716</v>
+        <v>138.9995674971064</v>
       </c>
       <c r="K6" t="n">
-        <v>101.0070048954607</v>
+        <v>101.0070048954614</v>
       </c>
       <c r="L6" t="n">
-        <v>182.6068287318304</v>
+        <v>182.6068287318312</v>
       </c>
       <c r="M6" t="n">
-        <v>232.6459482155671</v>
+        <v>232.6459482155681</v>
       </c>
       <c r="N6" t="n">
-        <v>253.3575809887921</v>
+        <v>253.3575809887931</v>
       </c>
       <c r="O6" t="n">
-        <v>209.3284516091751</v>
+        <v>209.328451609176</v>
       </c>
       <c r="P6" t="n">
-        <v>148.4761873979633</v>
+        <v>148.4761873979641</v>
       </c>
       <c r="Q6" t="n">
-        <v>242.4789034375635</v>
+        <v>116.3878680971578</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,25 +35096,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>121.8029452840086</v>
+        <v>121.802945284009</v>
       </c>
       <c r="L7" t="n">
-        <v>211.9531423569645</v>
+        <v>211.9531423569649</v>
       </c>
       <c r="M7" t="n">
-        <v>233.9689343238013</v>
+        <v>233.9689343238018</v>
       </c>
       <c r="N7" t="n">
-        <v>233.8951875490881</v>
+        <v>233.8951875490886</v>
       </c>
       <c r="O7" t="n">
-        <v>199.8619864574351</v>
+        <v>199.8619864574356</v>
       </c>
       <c r="P7" t="n">
-        <v>147.2581917617632</v>
+        <v>147.2581917617636</v>
       </c>
       <c r="Q7" t="n">
-        <v>17.67608023963663</v>
+        <v>17.6760802396369</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35251,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>117.9333660065826</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K9" t="n">
-        <v>451.0527332560634</v>
+        <v>397.6203974676407</v>
       </c>
       <c r="L9" t="n">
         <v>297.6803606378501</v>
@@ -35269,10 +35269,10 @@
         <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235322</v>
+        <v>568.1422977634694</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
@@ -35497,10 +35497,10 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>455.0369220524547</v>
       </c>
       <c r="N12" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992799</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35734,19 +35734,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>272.5107846304694</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,25 +35959,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774901</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>35.97859357997754</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641936</v>
+        <v>303.8786972770457</v>
       </c>
       <c r="N18" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992797</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,25 +36196,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>302.0934576762715</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36354,31 +36354,31 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
         <v>129.8660843902404</v>
@@ -36433,25 +36433,25 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113578</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
         <v>264.3325884096349</v>
@@ -36524,19 +36524,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36591,31 +36591,31 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902404</v>
@@ -36670,25 +36670,25 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>332.6181808359229</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
         <v>264.3325884096349</v>
@@ -36761,19 +36761,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36828,31 +36828,31 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902404</v>
@@ -36907,25 +36907,25 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113578</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
         <v>264.3325884096349</v>
@@ -36998,19 +36998,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37065,31 +37065,31 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902404</v>
@@ -37144,25 +37144,25 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113578</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
         <v>264.3325884096349</v>
@@ -37235,19 +37235,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37302,31 +37302,31 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902404</v>
@@ -37381,25 +37381,25 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113578</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
         <v>264.3325884096349</v>
@@ -37472,19 +37472,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37539,31 +37539,31 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37618,25 +37618,25 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113578</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
         <v>264.3325884096349</v>
@@ -37709,19 +37709,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37776,31 +37776,31 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37855,25 +37855,25 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113578</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
         <v>264.3325884096349</v>
@@ -37946,19 +37946,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38013,31 +38013,31 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902404</v>
@@ -38092,25 +38092,25 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113578</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
         <v>264.3325884096349</v>
@@ -38183,19 +38183,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
